--- a/storage/formatStorage/Export.xlsx
+++ b/storage/formatStorage/Export.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hinsei\server\public\storage\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HLAL\server\storage\formatStorage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96E9B7-30D3-44F4-9C11-9BEF013C4238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A08F71-EAA0-4F7B-981D-2826F77E1DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9512,7 +9512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9595,27 +9595,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9646,6 +9625,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9093">
@@ -19033,7 +19036,7 @@
       <pane xSplit="13" ySplit="9" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19078,66 +19081,66 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:28" ht="18.75">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="33" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="30" t="s">
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
     </row>
     <row r="8" spans="2:28" ht="17.25" customHeight="1">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="24" t="s">
         <v>35</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -19146,7 +19149,7 @@
       <c r="L8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -19167,7 +19170,7 @@
       <c r="S8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="T8" s="34" t="s">
+      <c r="T8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -19194,22 +19197,22 @@
       </c>
     </row>
     <row r="9" spans="2:28" ht="37.5">
-      <c r="B9" s="32"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="31"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="3" t="s">
         <v>21</v>
       </c>
@@ -19228,7 +19231,7 @@
       <c r="S9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="35"/>
+      <c r="T9" s="28"/>
       <c r="U9" s="14" t="s">
         <v>10</v>
       </c>
@@ -19254,92 +19257,92 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="15" customHeight="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
+    <row r="10" spans="2:28" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
     </row>
-    <row r="11" spans="2:28" ht="15" customHeight="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
+    <row r="11" spans="2:28" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
     </row>
-    <row r="12" spans="2:28" ht="15" customHeight="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
+    <row r="12" spans="2:28" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="9"/>
